--- a/Docs/JNLTRAV/JnlTrav_EthanSchafstall.xlsx
+++ b/Docs/JNLTRAV/JnlTrav_EthanSchafstall.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
   <si>
     <t>Classe :</t>
   </si>
@@ -185,6 +185,24 @@
   </si>
   <si>
     <t>Ethan Schafstall</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Added base HTML structure.</t>
+  </si>
+  <si>
+    <t>Added CSS style for different elements/web interface.</t>
+  </si>
+  <si>
+    <t>Added addName() and removeName(), displayStudents()</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1032,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1300,6 +1318,22 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1393,7 +1427,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
@@ -1451,7 +1485,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -1509,9 +1543,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1572,9 +1606,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1635,9 +1669,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1698,9 +1732,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1980,8 +2014,8 @@
   </sheetPr>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2197,10 +2231,10 @@
     </row>
     <row r="19" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="120"/>
+      <c r="C19" s="124"/>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
       <c r="F19" s="60"/>
@@ -3128,120 +3162,120 @@
       <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="121" t="s">
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="121" t="s">
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="121" t="s">
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="123"/>
-      <c r="AN2" s="121" t="s">
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="123"/>
-      <c r="AW2" s="121" t="s">
+      <c r="AO2" s="126"/>
+      <c r="AP2" s="126"/>
+      <c r="AQ2" s="126"/>
+      <c r="AR2" s="126"/>
+      <c r="AS2" s="126"/>
+      <c r="AT2" s="126"/>
+      <c r="AU2" s="126"/>
+      <c r="AV2" s="127"/>
+      <c r="AW2" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="122"/>
-      <c r="BB2" s="122"/>
-      <c r="BC2" s="122"/>
-      <c r="BD2" s="122"/>
-      <c r="BE2" s="123"/>
-      <c r="BF2" s="121" t="s">
+      <c r="AX2" s="126"/>
+      <c r="AY2" s="126"/>
+      <c r="AZ2" s="126"/>
+      <c r="BA2" s="126"/>
+      <c r="BB2" s="126"/>
+      <c r="BC2" s="126"/>
+      <c r="BD2" s="126"/>
+      <c r="BE2" s="127"/>
+      <c r="BF2" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="BG2" s="122"/>
-      <c r="BH2" s="122"/>
-      <c r="BI2" s="122"/>
-      <c r="BJ2" s="122"/>
-      <c r="BK2" s="122"/>
-      <c r="BL2" s="122"/>
-      <c r="BM2" s="122"/>
-      <c r="BN2" s="123"/>
-      <c r="BO2" s="121" t="s">
+      <c r="BG2" s="126"/>
+      <c r="BH2" s="126"/>
+      <c r="BI2" s="126"/>
+      <c r="BJ2" s="126"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="126"/>
+      <c r="BN2" s="127"/>
+      <c r="BO2" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="BP2" s="122"/>
-      <c r="BQ2" s="122"/>
-      <c r="BR2" s="122"/>
-      <c r="BS2" s="122"/>
-      <c r="BT2" s="122"/>
-      <c r="BU2" s="122"/>
-      <c r="BV2" s="122"/>
-      <c r="BW2" s="123"/>
-      <c r="BX2" s="121" t="s">
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
+      <c r="BR2" s="126"/>
+      <c r="BS2" s="126"/>
+      <c r="BT2" s="126"/>
+      <c r="BU2" s="126"/>
+      <c r="BV2" s="126"/>
+      <c r="BW2" s="127"/>
+      <c r="BX2" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="BY2" s="122"/>
-      <c r="BZ2" s="122"/>
-      <c r="CA2" s="122"/>
-      <c r="CB2" s="122"/>
-      <c r="CC2" s="122"/>
-      <c r="CD2" s="122"/>
-      <c r="CE2" s="122"/>
-      <c r="CF2" s="123"/>
-      <c r="CG2" s="121" t="s">
+      <c r="BY2" s="126"/>
+      <c r="BZ2" s="126"/>
+      <c r="CA2" s="126"/>
+      <c r="CB2" s="126"/>
+      <c r="CC2" s="126"/>
+      <c r="CD2" s="126"/>
+      <c r="CE2" s="126"/>
+      <c r="CF2" s="127"/>
+      <c r="CG2" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="CH2" s="122"/>
-      <c r="CI2" s="122"/>
-      <c r="CJ2" s="122"/>
-      <c r="CK2" s="122"/>
-      <c r="CL2" s="122"/>
-      <c r="CM2" s="122"/>
-      <c r="CN2" s="122"/>
-      <c r="CO2" s="123"/>
+      <c r="CH2" s="126"/>
+      <c r="CI2" s="126"/>
+      <c r="CJ2" s="126"/>
+      <c r="CK2" s="126"/>
+      <c r="CL2" s="126"/>
+      <c r="CM2" s="126"/>
+      <c r="CN2" s="126"/>
+      <c r="CO2" s="127"/>
     </row>
     <row r="3" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="90"/>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="130" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="16">
@@ -3340,7 +3374,7 @@
     </row>
     <row r="4" spans="1:93" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="90"/>
-      <c r="B4" s="127"/>
+      <c r="B4" s="131"/>
       <c r="C4" s="22">
         <v>0</v>
       </c>
@@ -3436,7 +3470,7 @@
       <c r="CO4" s="100"/>
     </row>
     <row r="5" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="128">
+      <c r="B5" s="132">
         <f>Donnees!$C$21</f>
         <v>0</v>
       </c>
@@ -3535,7 +3569,7 @@
       <c r="CO5" s="95"/>
     </row>
     <row r="6" spans="1:93" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="125"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="102">
         <v>1</v>
       </c>
@@ -3631,7 +3665,7 @@
       <c r="CO6" s="100"/>
     </row>
     <row r="7" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="124">
+      <c r="B7" s="128">
         <f>Donnees!$C$22</f>
         <v>0</v>
       </c>
@@ -3730,7 +3764,7 @@
       <c r="CO7" s="95"/>
     </row>
     <row r="8" spans="1:93" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="125"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="102">
         <v>0</v>
       </c>
@@ -3826,7 +3860,7 @@
       <c r="CO8" s="100"/>
     </row>
     <row r="9" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="124">
+      <c r="B9" s="128">
         <f>Donnees!$C$23</f>
         <v>0</v>
       </c>
@@ -3925,7 +3959,7 @@
       <c r="CO9" s="95"/>
     </row>
     <row r="10" spans="1:93" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="125"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="102">
         <v>0</v>
       </c>
@@ -4021,7 +4055,7 @@
       <c r="CO10" s="100"/>
     </row>
     <row r="11" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="124">
+      <c r="B11" s="128">
         <f>Donnees!$C$24</f>
         <v>0</v>
       </c>
@@ -4120,7 +4154,7 @@
       <c r="CO11" s="95"/>
     </row>
     <row r="12" spans="1:93" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="125"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="102">
         <v>0</v>
       </c>
@@ -4216,7 +4250,7 @@
       <c r="CO12" s="100"/>
     </row>
     <row r="13" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="124">
+      <c r="B13" s="128">
         <f>Donnees!$C$25</f>
         <v>0</v>
       </c>
@@ -4315,7 +4349,7 @@
       <c r="CO13" s="95"/>
     </row>
     <row r="14" spans="1:93" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="125"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="102">
         <v>0</v>
       </c>
@@ -4411,7 +4445,7 @@
       <c r="CO14" s="100"/>
     </row>
     <row r="15" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="124">
+      <c r="B15" s="128">
         <f>Donnees!$C$26</f>
         <v>0</v>
       </c>
@@ -4511,7 +4545,7 @@
     </row>
     <row r="16" spans="1:93" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="103"/>
-      <c r="B16" s="125"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="102">
         <v>0</v>
       </c>
@@ -4607,7 +4641,7 @@
       <c r="CO16" s="100"/>
     </row>
     <row r="17" spans="2:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="124">
+      <c r="B17" s="128">
         <f>Donnees!$C$27</f>
         <v>0</v>
       </c>
@@ -4706,7 +4740,7 @@
       <c r="CO17" s="95"/>
     </row>
     <row r="18" spans="2:93" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="125"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="102">
         <v>3</v>
       </c>
@@ -4802,7 +4836,7 @@
       <c r="CO18" s="100"/>
     </row>
     <row r="19" spans="2:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="124">
+      <c r="B19" s="128">
         <f>Donnees!$C$28</f>
         <v>0</v>
       </c>
@@ -4901,7 +4935,7 @@
       <c r="CO19" s="95"/>
     </row>
     <row r="20" spans="2:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="125"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="102">
         <v>5</v>
       </c>
@@ -5260,7 +5294,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="130" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="16">
@@ -5269,7 +5303,7 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="129"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="22">
         <v>0</v>
       </c>
@@ -6072,8 +6106,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6115,21 +6149,39 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>44</v>
+      </c>
       <c r="D3" s="112"/>
     </row>
     <row r="4" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="120" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="122" t="s">
+        <v>42</v>
+      </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="120" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="122" t="s">
+        <v>43</v>
+      </c>
       <c r="D5" s="113"/>
     </row>
     <row r="6" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
@@ -6210,7 +6262,7 @@
       </c>
       <c r="B18" s="48">
         <f>SUM(B3:B17)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C18" s="111" t="s">
         <v>35</v>
